--- a/Objetos_IFC.xlsx
+++ b/Objetos_IFC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Menegotto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8978C-D6A4-4250-BDB3-D2FABDE2D69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB459F9F-7B90-4FCA-B433-A6C28EFE7E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C9AAB1B1-24F3-4598-9922-6537DF239D8C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12140" uniqueCount="1779">
   <si>
     <t>Enum_ENU</t>
   </si>
@@ -5024,9 +5024,6 @@
     <t>ifc_N8</t>
   </si>
   <si>
-    <t>ifc_BRA</t>
-  </si>
-  <si>
     <t>Rvt_Cat_01</t>
   </si>
   <si>
@@ -5373,6 +5370,12 @@
   </si>
   <si>
     <t>tanque de pressão e expansão</t>
+  </si>
+  <si>
+    <t>OST_FoodServiceEquipment</t>
+  </si>
+  <si>
+    <t>Classes_IFC</t>
   </si>
 </sst>
 </file>
@@ -5943,9 +5946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4073C91-8C37-4E04-A642-A357F09EBF7C}">
   <dimension ref="A1:U1145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L678" sqref="L678:N689"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1090" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:U1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5988,37 +5991,37 @@
         <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>1661</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1662</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1663</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1665</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1666</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>1668</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>1669</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>1670</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6051,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>12</v>
@@ -6096,7 +6099,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>12</v>
@@ -6141,7 +6144,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>12</v>
@@ -6186,7 +6189,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>12</v>
@@ -6231,7 +6234,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>12</v>
@@ -6276,7 +6279,7 @@
         <v>22</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>12</v>
@@ -6321,7 +6324,7 @@
         <v>24</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>12</v>
@@ -6409,7 +6412,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>28</v>
@@ -6454,7 +6457,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>28</v>
@@ -6499,7 +6502,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>28</v>
@@ -6544,7 +6547,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>28</v>
@@ -6589,7 +6592,7 @@
         <v>36</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>28</v>
@@ -6634,7 +6637,7 @@
         <v>38</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>28</v>
@@ -6679,7 +6682,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>28</v>
@@ -6724,7 +6727,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>28</v>
@@ -9451,13 +9454,13 @@
         <v>1144</v>
       </c>
       <c r="N77" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O77" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="O77" s="6" t="s">
-        <v>1702</v>
-      </c>
       <c r="P77" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -9504,13 +9507,13 @@
         <v>1144</v>
       </c>
       <c r="N78" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O78" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="O78" s="6" t="s">
-        <v>1702</v>
-      </c>
       <c r="P78" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
@@ -9557,13 +9560,13 @@
         <v>1144</v>
       </c>
       <c r="N79" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O79" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="O79" s="6" t="s">
-        <v>1702</v>
-      </c>
       <c r="P79" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -9610,13 +9613,13 @@
         <v>1144</v>
       </c>
       <c r="N80" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O80" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="O80" s="6" t="s">
-        <v>1702</v>
-      </c>
       <c r="P80" s="6" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
@@ -9819,13 +9822,13 @@
         <v>139</v>
       </c>
       <c r="L85" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="M85" s="6" t="s">
         <v>1703</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="N85" s="6" t="s">
         <v>1704</v>
-      </c>
-      <c r="N85" s="6" t="s">
-        <v>1705</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -9873,7 +9876,7 @@
         <v>155</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -10215,7 +10218,7 @@
         <v>163</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>164</v>
@@ -10262,7 +10265,7 @@
         <v>166</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L95" s="6" t="s">
         <v>164</v>
@@ -10309,7 +10312,7 @@
         <v>168</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L96" s="6" t="s">
         <v>164</v>
@@ -10356,7 +10359,7 @@
         <v>170</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L97" s="6" t="s">
         <v>164</v>
@@ -10403,7 +10406,7 @@
         <v>22</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L98" s="6" t="s">
         <v>164</v>
@@ -10450,7 +10453,7 @@
         <v>24</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L99" s="6" t="s">
         <v>164</v>
@@ -11381,7 +11384,7 @@
         <v>205</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>199</v>
@@ -11567,7 +11570,7 @@
         <v>207</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K123" s="5" t="s">
         <v>208</v>
@@ -12068,7 +12071,7 @@
         <v>221</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K134" s="5" t="s">
         <v>218</v>
@@ -22019,9 +22022,11 @@
         <v>567</v>
       </c>
       <c r="L357" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="M357" s="6"/>
+        <v>716</v>
+      </c>
+      <c r="M357" s="6" t="s">
+        <v>1777</v>
+      </c>
       <c r="N357" s="6"/>
       <c r="O357" s="6"/>
       <c r="P357" s="6"/>
@@ -22066,9 +22071,11 @@
         <v>567</v>
       </c>
       <c r="L358" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="M358" s="6"/>
+        <v>716</v>
+      </c>
+      <c r="M358" s="6" t="s">
+        <v>1777</v>
+      </c>
       <c r="N358" s="6"/>
       <c r="O358" s="6"/>
       <c r="P358" s="6"/>
@@ -22113,7 +22120,7 @@
         <v>567</v>
       </c>
       <c r="L359" s="6" t="s">
-        <v>568</v>
+        <v>716</v>
       </c>
       <c r="M359" s="6"/>
       <c r="N359" s="6"/>
@@ -22160,10 +22167,14 @@
         <v>567</v>
       </c>
       <c r="L360" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="M360" s="6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="N360" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M360" s="6"/>
-      <c r="N360" s="6"/>
       <c r="O360" s="6"/>
       <c r="P360" s="6"/>
       <c r="Q360" s="6"/>
@@ -22207,9 +22218,11 @@
         <v>567</v>
       </c>
       <c r="L361" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="M361" s="6"/>
+        <v>716</v>
+      </c>
+      <c r="M361" s="6" t="s">
+        <v>1777</v>
+      </c>
       <c r="N361" s="6"/>
       <c r="O361" s="6"/>
       <c r="P361" s="6"/>
@@ -22254,7 +22267,7 @@
         <v>567</v>
       </c>
       <c r="L362" s="6" t="s">
-        <v>568</v>
+        <v>716</v>
       </c>
       <c r="M362" s="6"/>
       <c r="N362" s="6"/>
@@ -22301,9 +22314,11 @@
         <v>567</v>
       </c>
       <c r="L363" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="M363" s="6"/>
+        <v>716</v>
+      </c>
+      <c r="M363" s="6" t="s">
+        <v>1777</v>
+      </c>
       <c r="N363" s="6"/>
       <c r="O363" s="6"/>
       <c r="P363" s="6"/>
@@ -22348,7 +22363,7 @@
         <v>567</v>
       </c>
       <c r="L364" s="6" t="s">
-        <v>568</v>
+        <v>716</v>
       </c>
       <c r="M364" s="6"/>
       <c r="N364" s="6"/>
@@ -22395,7 +22410,7 @@
         <v>567</v>
       </c>
       <c r="L365" s="6" t="s">
-        <v>568</v>
+        <v>716</v>
       </c>
       <c r="M365" s="6"/>
       <c r="N365" s="6"/>
@@ -22442,10 +22457,14 @@
         <v>567</v>
       </c>
       <c r="L366" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="M366" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M366" s="6"/>
-      <c r="N366" s="6"/>
+      <c r="N366" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="O366" s="6"/>
       <c r="P366" s="6"/>
       <c r="Q366" s="6"/>
@@ -22491,7 +22510,9 @@
       <c r="L367" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M367" s="6"/>
+      <c r="M367" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="N367" s="6"/>
       <c r="O367" s="6"/>
       <c r="P367" s="6"/>
@@ -22538,7 +22559,9 @@
       <c r="L368" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="M368" s="6"/>
+      <c r="M368" s="6" t="s">
+        <v>568</v>
+      </c>
       <c r="N368" s="6"/>
       <c r="O368" s="6"/>
       <c r="P368" s="6"/>
@@ -22628,7 +22651,7 @@
         <v>601</v>
       </c>
       <c r="L370" s="6" t="s">
-        <v>446</v>
+        <v>604</v>
       </c>
       <c r="M370" s="6"/>
       <c r="N370" s="6"/>
@@ -31793,7 +31816,7 @@
         <v>873</v>
       </c>
       <c r="J571" s="5" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K571" s="5" t="s">
         <v>875</v>
@@ -32202,7 +32225,7 @@
         <v>893</v>
       </c>
       <c r="J580" s="5" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K580" s="5" t="s">
         <v>875</v>
@@ -33075,7 +33098,7 @@
         <v>917</v>
       </c>
       <c r="J599" s="5" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K599" s="5" t="s">
         <v>918</v>
@@ -33206,7 +33229,7 @@
         <v>921</v>
       </c>
       <c r="J602" s="5" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="K602" s="5" t="s">
         <v>918</v>
@@ -33251,7 +33274,7 @@
         <v>922</v>
       </c>
       <c r="J603" s="5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K603" s="5" t="s">
         <v>918</v>
@@ -33296,7 +33319,7 @@
         <v>923</v>
       </c>
       <c r="J604" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K604" s="5" t="s">
         <v>918</v>
@@ -34533,7 +34556,7 @@
         <v>945</v>
       </c>
       <c r="J631" s="5" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="K631" s="5" t="s">
         <v>946</v>
@@ -34627,7 +34650,7 @@
         <v>948</v>
       </c>
       <c r="J633" s="5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K633" s="5" t="s">
         <v>946</v>
@@ -34721,7 +34744,7 @@
         <v>951</v>
       </c>
       <c r="J635" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K635" s="5" t="s">
         <v>946</v>
@@ -34768,7 +34791,7 @@
         <v>952</v>
       </c>
       <c r="J636" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K636" s="5" t="s">
         <v>946</v>
@@ -34815,7 +34838,7 @@
         <v>953</v>
       </c>
       <c r="J637" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="K637" s="5" t="s">
         <v>946</v>
@@ -35314,7 +35337,7 @@
         <v>965</v>
       </c>
       <c r="J648" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="K648" s="5" t="s">
         <v>966</v>
@@ -35361,7 +35384,7 @@
         <v>967</v>
       </c>
       <c r="J649" s="5" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="K649" s="5" t="s">
         <v>966</v>
@@ -35408,7 +35431,7 @@
         <v>968</v>
       </c>
       <c r="J650" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="K650" s="5" t="s">
         <v>966</v>
@@ -35455,7 +35478,7 @@
         <v>969</v>
       </c>
       <c r="J651" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K651" s="5" t="s">
         <v>966</v>
@@ -35502,7 +35525,7 @@
         <v>970</v>
       </c>
       <c r="J652" s="5" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="K652" s="5" t="s">
         <v>966</v>
@@ -35549,7 +35572,7 @@
         <v>971</v>
       </c>
       <c r="J653" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K653" s="5" t="s">
         <v>966</v>
@@ -35596,7 +35619,7 @@
         <v>972</v>
       </c>
       <c r="J654" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K654" s="5" t="s">
         <v>966</v>
@@ -35821,7 +35844,7 @@
         <v>980</v>
       </c>
       <c r="J659" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="K659" s="5" t="s">
         <v>976</v>
@@ -35868,7 +35891,7 @@
         <v>981</v>
       </c>
       <c r="J660" s="5" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="K660" s="5" t="s">
         <v>976</v>
@@ -36050,7 +36073,7 @@
         <v>983</v>
       </c>
       <c r="J664" s="5" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="K664" s="5" t="s">
         <v>984</v>
@@ -36093,7 +36116,7 @@
         <v>986</v>
       </c>
       <c r="J665" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K665" s="5" t="s">
         <v>984</v>
@@ -36136,7 +36159,7 @@
         <v>987</v>
       </c>
       <c r="J666" s="5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K666" s="5" t="s">
         <v>984</v>
@@ -36179,7 +36202,7 @@
         <v>989</v>
       </c>
       <c r="J667" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K667" s="5" t="s">
         <v>984</v>
@@ -36222,7 +36245,7 @@
         <v>990</v>
       </c>
       <c r="J668" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="K668" s="5" t="s">
         <v>984</v>
@@ -36265,7 +36288,7 @@
         <v>991</v>
       </c>
       <c r="J669" s="5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K669" s="5" t="s">
         <v>984</v>
@@ -36435,7 +36458,7 @@
         <v>993</v>
       </c>
       <c r="J673" s="5" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="K673" s="5" t="s">
         <v>994</v>
@@ -36478,7 +36501,7 @@
         <v>995</v>
       </c>
       <c r="J674" s="5" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="K674" s="5" t="s">
         <v>994</v>
@@ -38616,7 +38639,7 @@
         <v>1080</v>
       </c>
       <c r="J722" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="K722" s="5" t="s">
         <v>1081</v>
@@ -38661,7 +38684,7 @@
         <v>1082</v>
       </c>
       <c r="J723" s="5" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K723" s="5" t="s">
         <v>1081</v>
@@ -38706,7 +38729,7 @@
         <v>1083</v>
       </c>
       <c r="J724" s="5" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="K724" s="5" t="s">
         <v>1081</v>
@@ -38751,7 +38774,7 @@
         <v>1084</v>
       </c>
       <c r="J725" s="5" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="K725" s="5" t="s">
         <v>1081</v>
@@ -38796,7 +38819,7 @@
         <v>1085</v>
       </c>
       <c r="J726" s="5" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="K726" s="5" t="s">
         <v>1081</v>
@@ -38841,7 +38864,7 @@
         <v>1086</v>
       </c>
       <c r="J727" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="K727" s="5" t="s">
         <v>1081</v>
@@ -38886,7 +38909,7 @@
         <v>1087</v>
       </c>
       <c r="J728" s="5" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="K728" s="5" t="s">
         <v>1081</v>
@@ -38931,7 +38954,7 @@
         <v>1088</v>
       </c>
       <c r="J729" s="5" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="K729" s="5" t="s">
         <v>1081</v>
@@ -38976,7 +38999,7 @@
         <v>1089</v>
       </c>
       <c r="J730" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="K730" s="5" t="s">
         <v>1081</v>
@@ -39021,7 +39044,7 @@
         <v>1090</v>
       </c>
       <c r="J731" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="K731" s="5" t="s">
         <v>1081</v>
@@ -39066,7 +39089,7 @@
         <v>1091</v>
       </c>
       <c r="J732" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="K732" s="5" t="s">
         <v>1081</v>
@@ -39111,7 +39134,7 @@
         <v>1092</v>
       </c>
       <c r="J733" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="K733" s="5" t="s">
         <v>1081</v>
@@ -39156,7 +39179,7 @@
         <v>1093</v>
       </c>
       <c r="J734" s="5" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="K734" s="5" t="s">
         <v>1081</v>
@@ -39201,7 +39224,7 @@
         <v>1094</v>
       </c>
       <c r="J735" s="5" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="K735" s="5" t="s">
         <v>1081</v>
@@ -39246,7 +39269,7 @@
         <v>1096</v>
       </c>
       <c r="J736" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="K736" s="5" t="s">
         <v>1081</v>
@@ -39291,7 +39314,7 @@
         <v>1097</v>
       </c>
       <c r="J737" s="5" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="K737" s="5" t="s">
         <v>1081</v>
@@ -39336,7 +39359,7 @@
         <v>1098</v>
       </c>
       <c r="J738" s="5" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="K738" s="5" t="s">
         <v>1081</v>
@@ -39381,7 +39404,7 @@
         <v>1099</v>
       </c>
       <c r="J739" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K739" s="5" t="s">
         <v>1081</v>
@@ -39426,7 +39449,7 @@
         <v>1100</v>
       </c>
       <c r="J740" s="5" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="K740" s="5" t="s">
         <v>1081</v>
@@ -39471,7 +39494,7 @@
         <v>1101</v>
       </c>
       <c r="J741" s="5" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="K741" s="5" t="s">
         <v>1081</v>
@@ -39516,7 +39539,7 @@
         <v>1102</v>
       </c>
       <c r="J742" s="5" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="K742" s="5" t="s">
         <v>1081</v>
@@ -39561,7 +39584,7 @@
         <v>1103</v>
       </c>
       <c r="J743" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K743" s="5" t="s">
         <v>1081</v>
@@ -39606,7 +39629,7 @@
         <v>1104</v>
       </c>
       <c r="J744" s="5" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="K744" s="5" t="s">
         <v>1081</v>
@@ -39651,7 +39674,7 @@
         <v>1105</v>
       </c>
       <c r="J745" s="5" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="K745" s="5" t="s">
         <v>1081</v>
@@ -40336,7 +40359,7 @@
         <v>1127</v>
       </c>
       <c r="L760" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="M760" s="6"/>
       <c r="N760" s="6"/>
@@ -43362,7 +43385,7 @@
         <v>1194</v>
       </c>
       <c r="J828" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K828" s="5" t="s">
         <v>1195</v>
@@ -43456,7 +43479,7 @@
         <v>1198</v>
       </c>
       <c r="J830" s="5" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="K830" s="5" t="s">
         <v>1195</v>
@@ -43503,7 +43526,7 @@
         <v>1199</v>
       </c>
       <c r="J831" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="K831" s="5" t="s">
         <v>1195</v>
@@ -43550,7 +43573,7 @@
         <v>1200</v>
       </c>
       <c r="J832" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="K832" s="5" t="s">
         <v>1195</v>
@@ -43597,7 +43620,7 @@
         <v>1201</v>
       </c>
       <c r="J833" s="5" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K833" s="5" t="s">
         <v>1195</v>
@@ -43644,7 +43667,7 @@
         <v>1202</v>
       </c>
       <c r="J834" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="K834" s="5" t="s">
         <v>1195</v>
@@ -43691,7 +43714,7 @@
         <v>1203</v>
       </c>
       <c r="J835" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="K835" s="5" t="s">
         <v>1195</v>
@@ -43738,7 +43761,7 @@
         <v>1204</v>
       </c>
       <c r="J836" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="K836" s="5" t="s">
         <v>1195</v>
@@ -44137,7 +44160,7 @@
         <v>1211</v>
       </c>
       <c r="J845" s="5" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="K845" s="5" t="s">
         <v>1212</v>
@@ -44184,7 +44207,7 @@
         <v>1213</v>
       </c>
       <c r="J846" s="5" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K846" s="5" t="s">
         <v>1212</v>
@@ -44231,7 +44254,7 @@
         <v>1214</v>
       </c>
       <c r="J847" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="K847" s="5" t="s">
         <v>1212</v>
@@ -44278,7 +44301,7 @@
         <v>1215</v>
       </c>
       <c r="J848" s="5" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="K848" s="5" t="s">
         <v>1212</v>
@@ -44325,7 +44348,7 @@
         <v>1216</v>
       </c>
       <c r="J849" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="K849" s="5" t="s">
         <v>1212</v>
@@ -44372,7 +44395,7 @@
         <v>1217</v>
       </c>
       <c r="J850" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="K850" s="5" t="s">
         <v>1212</v>
@@ -44419,7 +44442,7 @@
         <v>1218</v>
       </c>
       <c r="J851" s="5" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="K851" s="5" t="s">
         <v>1212</v>
@@ -47080,7 +47103,7 @@
         <v>1298</v>
       </c>
       <c r="J910" s="5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="K910" s="5" t="s">
         <v>1293</v>
@@ -47127,7 +47150,7 @@
         <v>1299</v>
       </c>
       <c r="J911" s="5" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="K911" s="5" t="s">
         <v>1293</v>
@@ -47174,7 +47197,7 @@
         <v>1300</v>
       </c>
       <c r="J912" s="5" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="K912" s="5" t="s">
         <v>1293</v>
@@ -47221,7 +47244,7 @@
         <v>1301</v>
       </c>
       <c r="J913" s="5" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="K913" s="5" t="s">
         <v>1293</v>
@@ -47268,7 +47291,7 @@
         <v>1302</v>
       </c>
       <c r="J914" s="5" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="K914" s="5" t="s">
         <v>1293</v>
@@ -47315,7 +47338,7 @@
         <v>1303</v>
       </c>
       <c r="J915" s="5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="K915" s="5" t="s">
         <v>1293</v>
@@ -47362,7 +47385,7 @@
         <v>1304</v>
       </c>
       <c r="J916" s="5" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="K916" s="5" t="s">
         <v>1293</v>
@@ -47409,7 +47432,7 @@
         <v>1305</v>
       </c>
       <c r="J917" s="5" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="K917" s="5" t="s">
         <v>1293</v>
@@ -47456,7 +47479,7 @@
         <v>1306</v>
       </c>
       <c r="J918" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K918" s="5" t="s">
         <v>1293</v>
@@ -47503,7 +47526,7 @@
         <v>1307</v>
       </c>
       <c r="J919" s="5" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K919" s="5" t="s">
         <v>1293</v>
@@ -47550,7 +47573,7 @@
         <v>1308</v>
       </c>
       <c r="J920" s="5" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="K920" s="5" t="s">
         <v>1293</v>
@@ -47644,7 +47667,7 @@
         <v>1311</v>
       </c>
       <c r="J922" s="5" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K922" s="5" t="s">
         <v>1293</v>
@@ -47691,7 +47714,7 @@
         <v>1312</v>
       </c>
       <c r="J923" s="5" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K923" s="5" t="s">
         <v>1293</v>
@@ -47738,7 +47761,7 @@
         <v>1313</v>
       </c>
       <c r="J924" s="5" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="K924" s="5" t="s">
         <v>1293</v>
@@ -47785,7 +47808,7 @@
         <v>1314</v>
       </c>
       <c r="J925" s="5" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K925" s="5" t="s">
         <v>1293</v>
@@ -47829,10 +47852,10 @@
         <v>1290</v>
       </c>
       <c r="I926" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J926" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K926" s="5" t="s">
         <v>1293</v>
@@ -54231,7 +54254,7 @@
         <v>1518</v>
       </c>
       <c r="J1087" s="5" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K1087" s="5" t="s">
         <v>1519</v>
@@ -54272,7 +54295,7 @@
         <v>1520</v>
       </c>
       <c r="J1088" s="5" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K1088" s="5" t="s">
         <v>1519</v>
@@ -54313,7 +54336,7 @@
         <v>1521</v>
       </c>
       <c r="J1089" s="5" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K1089" s="5" t="s">
         <v>1519</v>
@@ -54354,7 +54377,7 @@
         <v>497</v>
       </c>
       <c r="J1090" s="5" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="K1090" s="5" t="s">
         <v>1519</v>
@@ -54395,7 +54418,7 @@
         <v>499</v>
       </c>
       <c r="J1091" s="5" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K1091" s="5" t="s">
         <v>1519</v>
@@ -54436,7 +54459,7 @@
         <v>1522</v>
       </c>
       <c r="J1092" s="5" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="K1092" s="5" t="s">
         <v>1519</v>
@@ -54477,7 +54500,7 @@
         <v>1523</v>
       </c>
       <c r="J1093" s="5" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="K1093" s="5" t="s">
         <v>1519</v>
@@ -54518,7 +54541,7 @@
         <v>1524</v>
       </c>
       <c r="J1094" s="5" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="K1094" s="5" t="s">
         <v>1519</v>
@@ -55599,7 +55622,7 @@
         <v>1558</v>
       </c>
       <c r="J1121" s="5" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K1121" s="5" t="s">
         <v>1557</v>
@@ -55794,7 +55817,7 @@
         <v>1563</v>
       </c>
       <c r="J1126" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K1126" s="5" t="s">
         <v>1557</v>
